--- a/biology/Botanique/Berberis_darwinii/Berberis_darwinii.xlsx
+++ b/biology/Botanique/Berberis_darwinii/Berberis_darwinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis darwinii, parfois appelée épine-vinette de Darwin, est une plante arbustive originaire d'Amérique du sud (Argentine, Chili, Andes) et appartient à la famille des Berberidaceae. Il est utilisé en Europe comme plante ornementale du fait de son feuillage persistant.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son écorce est d'une couleur brun rougeâtre. Ses rameaux ligneux, à la sève jaune, sont parsemés de redoutables épines. Cet arbuste peut être utilisé pour constituer des haies.
 De petites baies rouges (comestibles mais très acides) apparaissent peu après la floraison de janvier à mars qui elle-même fait de petites fleurs hermaphrodites orangées très décoratives.
